--- a/Resultados/Lista_unique_rutas_UNEs.xlsx
+++ b/Resultados/Lista_unique_rutas_UNEs.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D001016</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D001055</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D001062</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001048</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002053</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,55 +520,55 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D004037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D002014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D001032</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D001034</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001042</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,55 +580,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D003033</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D003043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D003047</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D001104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,60 +640,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D004016</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D002049</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D001026</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D001014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,115 +736,115 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002051</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D003046</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001004</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D001012</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D004036</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D001052</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D004007</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D002036</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D002042</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,79 +856,79 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D003034</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D001108</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001301</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D003037</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D003008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003105</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D002056</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,31 +940,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002108</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003004</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D001020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,67 +988,67 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D001027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D002023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D004039</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D001015</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D001056</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D001025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,43 +1072,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D003044</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002057</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D002013</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D001053</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D004014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,91 +1132,91 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D001031</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D004011</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D004012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D001109</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D004024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D004027</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D001101</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D003014</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D002006</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,67 +1240,67 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D004008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D003001</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D003045</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D003002</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D002028</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001049</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,211 +1312,211 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D004040</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D002022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D003038</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001111</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D001201</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002001</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D002003</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D004002</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D002032</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002017</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D004110</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003057</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D003020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001013</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D001005</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001060</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D002002</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D002035</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,43 +1528,43 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D001059</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D001045</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D003029</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D001021</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,19 +1576,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D001033</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D003041</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,103 +1600,103 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001007</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D001008</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D003027</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D003028</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D002009</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D002010</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D002037</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D002026</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001023</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,19 +1708,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D004038</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001047</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,43 +1732,43 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D001050</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D004015</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D002052</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D001058</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,19 +1780,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D001009</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D003042</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001106</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,91 +1816,91 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D004009</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D004013</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D002054</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D001006</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D003035</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D002038</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D003036</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D003007</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,19 +1912,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D003055</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D002021</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,19 +1936,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D002048</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D001102</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,55 +1960,55 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D004030</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001103</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001003</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D001044</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D003032</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,103 +2020,103 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D002050</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003039</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D004041</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D001019</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D001002</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D001010</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D001061</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D002034</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D003106</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,19 +2128,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D002024</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D003031</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,91 +2152,91 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002016</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D003067</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004004</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D002055</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D002008</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D002011</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D002012</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D001107</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,19 +2248,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002039</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D002044</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D003006</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,19 +2284,19 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003016</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003019</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2320,79 +2320,79 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D004111</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002018</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D001094</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D002015</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D002040</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D003021</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D002031</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,19 +2404,19 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D004101</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D003049</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,43 +2428,43 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D004017</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D001011</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D002004</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D004112</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D001110</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,19 +2488,19 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D002109</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D003061</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,19 +2512,19 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D001202</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004003</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,19 +2536,19 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D002041</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D002020</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,19 +2560,19 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D002005</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D003101</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,67 +2584,67 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D004005</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D004023</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D002107</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003003</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004001</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D003018</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,31 +2656,31 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004043</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D004044</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001112</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001036</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,19 +2704,19 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D004026</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,43 +2728,43 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003053</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D004010</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D004029</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D004022</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,91 +2776,91 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D004031</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D004018</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D004108</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D004028</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D003009</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D004042</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D003017</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D004045</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,67 +2872,67 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D002019</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004109</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D003058</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003059</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D004035</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003013</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,31 +2944,31 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D001302</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D003301</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D003015</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,43 +2980,43 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D004107</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D004006</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D003103</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D003056</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,12 +3028,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D003060</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D004104</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,91 +3064,91 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002045</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D004102</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D003063</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003051</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D003023</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D001039</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003052</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D002033</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,43 +3160,43 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D002106</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D002047</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D002046</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D003104</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D004106</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,31 +3220,31 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D004032</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004019</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003062</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,91 +3256,91 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D001041</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003065</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D004103</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004033</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D002102</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D004034</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D003102</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D003025</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,19 +3352,19 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D003026</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D002103</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,55 +3376,55 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003022</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D002104</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D001037</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002007</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004046</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D003050</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,48 +3448,48 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004021</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D004020</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003010</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D004105</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas_UNEs.xlsx
+++ b/Resultados/Lista_unique_rutas_UNEs.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001301</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D001037</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,79 +472,79 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D004109</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D004024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004027</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003030</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001018</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D001020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D001027</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,67 +556,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D004008</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D003001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001009</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D001106</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D001036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D001041</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,19 +628,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D004026</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D004009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002039</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D001019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,19 +700,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D003031</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D002034</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D001026</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,31 +736,31 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D001048</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D001016</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D001109</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,19 +784,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D001032</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001034</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,43 +808,43 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D002014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D001022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D004037</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D003008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,127 +856,127 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D001108</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D002006</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D003014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D002023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D004039</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D001033</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D001045</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D001021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D004025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003029</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001059</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,31 +988,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D002044</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D001058</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D002008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,31 +1024,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002011</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D001107</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,19 +1060,19 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D003016</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D003019</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,19 +1084,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D001061</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D002024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,79 +1108,79 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D004045</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D001101</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D002025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D001111</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D001201</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D002019</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004040</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,19 +1192,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D002051</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D001302</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,79 +1216,79 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D002015</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D003034</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D002109</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D002055</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004018</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D001014</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D002017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,55 +1300,55 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D004110</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D001053</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D001024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D001044</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D001003</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D001011</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,43 +1372,43 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D001039</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D004022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D002001</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D002003</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,91 +1420,91 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001007</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001008</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D002037</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D002009</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002010</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003027</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D003028</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002043</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,19 +1516,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D003056</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001055</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D001012</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,19 +1552,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D001031</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D001004</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001052</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,19 +1588,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D002016</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D001047</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D001050</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,103 +1624,103 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D001110</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D001023</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D004011</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D004012</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001062</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D003017</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D004036</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D002036</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D001006</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,79 +1732,79 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D002038</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D003007</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D003055</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D004043</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D004038</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D002042</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001042</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D004023</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,19 +1828,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D003033</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D002013</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,31 +1852,31 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D004042</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002049</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D002056</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D003047</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D003060</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,55 +1912,55 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D002108</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003018</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004028</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004108</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D004016</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D001005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001013</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D001060</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,115 +2008,115 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D004010</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D003004</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D004044</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D003103</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D003106</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D003006</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D003010</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D004105</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D003057</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D003009</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,43 +2128,43 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003035</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002020</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D003105</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003053</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D004035</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,163 +2188,163 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D003067</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D003020</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D004007</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D004004</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D004014</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D001025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001049</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D001015</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D001112</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D001202</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D004013</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D002004</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D003032</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D001103</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002027</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D002030</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,55 +2380,55 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D002050</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D003039</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003049</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D001056</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004112</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,31 +2440,31 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D002107</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003003</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D004111</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,48 +2476,48 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D002054</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D003002</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D002018</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D002022</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
@@ -2536,31 +2536,31 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D001094</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003042</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D002002</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003036</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,31 +2584,31 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D003102</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D002035</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D002040</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,19 +2620,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004001</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D004015</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,19 +2644,19 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D002052</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D004002</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,103 +2668,103 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D002053</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D003058</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D003059</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D002021</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D002041</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D002032</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D003104</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D003043</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D004046</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,19 +2776,19 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D002057</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D004030</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,43 +2800,43 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D003046</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D002031</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D002026</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D004101</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003063</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,19 +2860,19 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003051</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D002028</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D004031</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,31 +2896,31 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D004017</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D001104</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D004029</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003044</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,19 +2944,19 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003045</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D003061</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D003021</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D004104</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,19 +2992,19 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D002045</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D003025</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,55 +3016,55 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D004020</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D004032</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D001105</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003013</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D002033</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3088,19 +3088,19 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D002047</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D003023</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,24 +3112,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D004107</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D004006</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
@@ -3148,12 +3148,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D004106</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D002101</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,31 +3184,31 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D003026</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D004034</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D004103</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D004033</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,19 +3232,19 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D002046</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D003037</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,151 +3256,151 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D003062</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004019</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D003065</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002102</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D003050</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D003038</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D004021</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D002103</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D002104</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004041</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D002005</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D003015</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D001102</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,19 +3412,19 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003101</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D004005</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,60 +3436,60 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D002048</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D003041</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D003301</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002007</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003022</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas_UNEs.xlsx
+++ b/Resultados/Lista_unique_rutas_UNEs.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D001047</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D001110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,55 +472,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D002026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D002052</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D001023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D002016</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D001033</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D001045</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,55 +544,55 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D003029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D001059</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D001302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D002005</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D001016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D001030</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,55 +628,55 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D001048</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D001055</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D003027</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D003028</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D001007</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D001008</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,19 +700,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D002009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D002010</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,31 +724,31 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D004001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D004015</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D001003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001044</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,43 +772,43 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D003032</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002004</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D002050</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D002107</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,43 +820,43 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D003003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D001039</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002048</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D001021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,115 +868,115 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001102</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D001042</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D003033</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D002022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D002049</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D002056</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D003018</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D002108</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D001009</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D001058</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,19 +988,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001106</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D001107</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D002055</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,43 +1024,43 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D003016</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D003019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D003030</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D003034</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,55 +1072,55 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D001108</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D002006</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D003014</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D001037</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,19 +1132,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D001062</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D001109</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D001111</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,43 +1168,43 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D001201</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D001013</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D001005</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D001060</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002002</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,31 +1228,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D002031</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D003021</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D002035</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,19 +1264,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D002015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001050</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,31 +1288,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D001019</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D001002</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D001010</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,19 +1324,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D003031</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D001061</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,55 +1348,55 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D002024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D002034</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D002001</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D002003</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D002019</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,43 +1408,43 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D003017</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D002037</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D003004</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D002013</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,19 +1456,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001104</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D002008</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,31 +1480,31 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D002011</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D002012</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D002109</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,43 +1516,43 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D002040</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D002041</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D003015</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D001012</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D001031</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D001004</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D002036</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,91 +1600,91 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D004038</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D003106</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D004018</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002043</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D001006</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003035</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D002038</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003007</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,31 +1696,31 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D002021</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D003036</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D001015</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,67 +1732,67 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D001025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D001056</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D001202</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D001014</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D002027</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D002030</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,67 +1804,67 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D002032</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D001024</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001032</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001034</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D002051</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002057</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,127 +1876,127 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D001022</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D001105</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002007</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D001301</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D002042</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D003020</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D002053</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D002039</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003006</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002044</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001036</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,36 +2008,36 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002028</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D001112</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D001049</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D003055</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,79 +2068,79 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D002020</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D002014</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003037</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D001101</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D001011</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002045</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D002017</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D003067</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,19 +2164,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D004007</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D004036</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003301</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D003057</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,43 +2212,43 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D001052</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D001103</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D003009</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001018</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D001020</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D001027</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,115 +2284,115 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D002023</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D002025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D003001</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D003105</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D004043</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D004044</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D004037</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D001094</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D004004</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D003053</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,55 +2404,55 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002101</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D002018</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D002033</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D004022</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D003039</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,67 +2464,67 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D001053</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D003022</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D004006</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001041</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D004023</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D004014</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,19 +2536,19 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D004010</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003102</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D002054</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D003002</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,79 +2584,79 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D004024</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D004027</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D004045</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D003023</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D003049</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D003046</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D004040</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,19 +2668,19 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D004009</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D003061</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,60 +2692,60 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D004019</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003025</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D004011</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D004012</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D004002</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
@@ -2764,19 +2764,19 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D003026</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D002102</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,103 +2788,103 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003042</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D004026</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D004030</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D004017</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003038</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D004109</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D002106</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D004016</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D004104</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004025</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,67 +2908,67 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D004003</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D002047</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D004107</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D004101</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004035</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D003104</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,43 +2980,43 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003056</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003060</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004029</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D004042</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,79 +3028,79 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D003047</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D003044</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D004021</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D003058</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003059</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D003062</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D003050</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,19 +3112,19 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D003052</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D004034</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,67 +3136,67 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D002046</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D002104</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D004031</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D003013</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D004112</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D004046</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004028</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,19 +3220,19 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D003065</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D002103</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,19 +3244,19 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D004103</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D003101</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,67 +3268,67 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D003041</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004005</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004041</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004102</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D004033</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004110</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,31 +3340,31 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004013</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D003045</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D004111</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,43 +3376,43 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D004032</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D004108</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004106</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D003051</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,31 +3424,31 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D003063</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004008</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D003010</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,36 +3460,36 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D004020</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D004039</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D004105</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>

--- a/Resultados/Lista_unique_rutas_UNEs.xlsx
+++ b/Resultados/Lista_unique_rutas_UNEs.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D001047</t>
+          <t>D001018</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D001110</t>
+          <t>D001020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,19 +472,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D002026</t>
+          <t>D001027</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D002052</t>
+          <t>D002023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,19 +496,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D001023</t>
+          <t>D002025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D002016</t>
+          <t>D002013</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D001033</t>
+          <t>D001104</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D001045</t>
+          <t>D001105</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,55 +544,55 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D003029</t>
+          <t>D004023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D001059</t>
+          <t>D004028</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D001302</t>
+          <t>D003018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D002005</t>
+          <t>D003033</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D001016</t>
+          <t>D001019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D001026</t>
+          <t>D001002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D001030</t>
+          <t>D001010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,19 +628,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D001048</t>
+          <t>D003106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D001055</t>
+          <t>D001061</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D003027</t>
+          <t>D003031</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,31 +664,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D003028</t>
+          <t>D002034</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D001007</t>
+          <t>D002024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D001008</t>
+          <t>D001026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,55 +700,55 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D002009</t>
+          <t>D001030</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D002010</t>
+          <t>D001016</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D004001</t>
+          <t>D001109</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D004015</t>
+          <t>D001111</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D001003</t>
+          <t>D001201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,43 +760,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D001044</t>
+          <t>D002001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D003032</t>
+          <t>D001110</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D002004</t>
+          <t>D001047</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D002050</t>
+          <t>D002016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,115 +808,115 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D002107</t>
+          <t>D001023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D003003</t>
+          <t>D004001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D001039</t>
+          <t>D004038</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D002048</t>
+          <t>D004015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D001021</t>
+          <t>D003001</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D001102</t>
+          <t>D004008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D001042</t>
+          <t>D002049</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D003033</t>
+          <t>D001042</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D002022</t>
+          <t>D004108</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D002049</t>
+          <t>D002022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,19 +928,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D002056</t>
+          <t>D003043</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D003018</t>
+          <t>D003047</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D002108</t>
+          <t>D002052</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D001009</t>
+          <t>D001050</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,31 +976,31 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D001058</t>
+          <t>D002026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D001106</t>
+          <t>D002003</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D001107</t>
+          <t>D001048</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,31 +1012,31 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D002055</t>
+          <t>D004039</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D003016</t>
+          <t>D002108</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D003019</t>
+          <t>D003004</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,55 +1048,55 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D003030</t>
+          <t>D001055</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D003034</t>
+          <t>D001062</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D001108</t>
+          <t>D004002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D002006</t>
+          <t>D001006</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D003014</t>
+          <t>D003103</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,103 +1108,103 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D003008</t>
+          <t>D002038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D001037</t>
+          <t>D003007</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D001062</t>
+          <t>D003055</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D001109</t>
+          <t>D003035</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D001111</t>
+          <t>D002021</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D001201</t>
+          <t>D004016</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D001013</t>
+          <t>D002056</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D001005</t>
+          <t>D003009</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D001060</t>
+          <t>D001014</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,55 +1216,55 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D002002</t>
+          <t>D001024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>D002031</t>
+          <t>D003067</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>D003021</t>
+          <t>D004004</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D002035</t>
+          <t>D004110</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>D002015</t>
+          <t>D002027</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,19 +1276,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>D001050</t>
+          <t>D002030</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>D001019</t>
+          <t>D001032</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D001002</t>
+          <t>D001034</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,67 +1312,67 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>D001010</t>
+          <t>D002014</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>D003031</t>
+          <t>D001022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>D001061</t>
+          <t>D004006</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>D002024</t>
+          <t>D001037</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D002034</t>
+          <t>D001108</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>D002001</t>
+          <t>D002006</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,31 +1384,31 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>D002003</t>
+          <t>D003014</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>D002019</t>
+          <t>D003008</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>D003017</t>
+          <t>D003030</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,151 +1420,151 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D002037</t>
+          <t>D001012</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>D003004</t>
+          <t>D001031</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D002013</t>
+          <t>D001004</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>D001104</t>
+          <t>D002036</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>D002008</t>
+          <t>D004007</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>D002011</t>
+          <t>D004036</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>D002012</t>
+          <t>D003057</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D002109</t>
+          <t>D001025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>D002040</t>
+          <t>D001015</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>D002041</t>
+          <t>D001112</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>D003015</t>
+          <t>D001202</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>D001012</t>
+          <t>D004003</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>D001031</t>
+          <t>D001056</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,31 +1576,31 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>D001004</t>
+          <t>D003020</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>D002036</t>
+          <t>D003034</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>D004038</t>
+          <t>D004109</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,31 +1612,31 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>D003106</t>
+          <t>D004024</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>D004018</t>
+          <t>D001009</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D002043</t>
+          <t>D002008</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,91 +1648,91 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>D001006</t>
+          <t>D002011</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>D003035</t>
+          <t>D002012</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>D002038</t>
+          <t>D001058</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>D003007</t>
+          <t>D004026</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>D002021</t>
+          <t>D003016</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D003036</t>
+          <t>D004027</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>D001015</t>
+          <t>D002109</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>D001025</t>
+          <t>D001101</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,31 +1744,31 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>D001056</t>
+          <t>D003105</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>D001202</t>
+          <t>D003010</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>D001014</t>
+          <t>D001013</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,79 +1780,79 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D002027</t>
+          <t>D001005</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D002030</t>
+          <t>D001060</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>D002032</t>
+          <t>D003102</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D001024</t>
+          <t>D002002</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D001032</t>
+          <t>D002031</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D001034</t>
+          <t>D002035</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D002051</t>
+          <t>D002040</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>D002057</t>
+          <t>D002041</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,19 +1876,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>D001022</t>
+          <t>D002042</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>D001105</t>
+          <t>D001052</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,19 +1900,19 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>D002007</t>
+          <t>D003301</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D001301</t>
+          <t>D001033</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,31 +1924,31 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>D002042</t>
+          <t>D001021</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>D003020</t>
+          <t>D001302</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>D002053</t>
+          <t>D002005</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,43 +1960,43 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>D002039</t>
+          <t>D003101</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D003006</t>
+          <t>D004005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>D002044</t>
+          <t>D001059</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>D001036</t>
+          <t>D001102</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,19 +2008,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>D002028</t>
+          <t>D001007</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D001112</t>
+          <t>D001008</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,115 +2032,115 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>D001049</t>
+          <t>D002037</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>D003103</t>
+          <t>D002009</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>D003055</t>
+          <t>D002010</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>D002020</t>
+          <t>D003027</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>D002014</t>
+          <t>D004037</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D003037</t>
+          <t>D004040</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D001101</t>
+          <t>D003028</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D001011</t>
+          <t>D003104</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>D002045</t>
+          <t>D003017</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>D002017</t>
+          <t>D002043</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D003067</t>
+          <t>D003056</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,43 +2164,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>D004007</t>
+          <t>D003060</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D004036</t>
+          <t>D001094</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D003301</t>
+          <t>D002051</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>D003057</t>
+          <t>D003046</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,79 +2212,79 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D001052</t>
+          <t>D003058</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>D001103</t>
+          <t>D003059</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>D003009</t>
+          <t>D001301</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>D001018</t>
+          <t>D003029</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>D001020</t>
+          <t>D002015</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>D001027</t>
+          <t>D004025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D002023</t>
+          <t>D002020</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,67 +2296,67 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D002025</t>
+          <t>D003036</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>D003001</t>
+          <t>D001003</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D003105</t>
+          <t>D001011</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>D004043</t>
+          <t>D001044</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D004044</t>
+          <t>D001039</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>D004037</t>
+          <t>D004022</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,19 +2368,19 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>D001094</t>
+          <t>D004043</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D004004</t>
+          <t>D004044</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>D003053</t>
+          <t>D003021</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,67 +2404,67 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>D002101</t>
+          <t>D003019</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>D002018</t>
+          <t>D001036</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>D002033</t>
+          <t>D001041</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>D004022</t>
+          <t>D003015</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>D003039</t>
+          <t>D001045</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>D001053</t>
+          <t>D001106</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,31 +2476,31 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>D003022</t>
+          <t>D001107</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>D004006</t>
+          <t>D002039</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>D001041</t>
+          <t>D001049</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>D004023</t>
+          <t>D004111</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,43 +2524,43 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>D004014</t>
+          <t>D002018</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>D004010</t>
+          <t>D002054</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>D003102</t>
+          <t>D002032</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>D002054</t>
+          <t>D002017</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,19 +2572,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>D003002</t>
+          <t>D004010</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>D004024</t>
+          <t>D004045</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,55 +2596,55 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>D004027</t>
+          <t>D001103</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>D004045</t>
+          <t>D003032</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>D003023</t>
+          <t>D002004</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>D003049</t>
+          <t>D002050</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>D003046</t>
+          <t>D003053</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>D004040</t>
+          <t>D004014</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,103 +2668,103 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>D004009</t>
+          <t>D001053</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D001</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>D003061</t>
+          <t>D004009</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>D004019</t>
+          <t>D002055</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>D003025</t>
+          <t>D004020</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>D004011</t>
+          <t>D002044</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>D004012</t>
+          <t>D003042</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>D004002</t>
+          <t>D003006</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>D003043</t>
+          <t>D004105</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>D003026</t>
+          <t>D003061</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,19 +2776,19 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>D002102</t>
+          <t>D004031</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>D003042</t>
+          <t>D003041</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,31 +2800,31 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>D004026</t>
+          <t>D002028</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>D004030</t>
+          <t>D003045</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>D004017</t>
+          <t>D004035</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,19 +2836,19 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>D003038</t>
+          <t>D004030</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>D004109</t>
+          <t>D004042</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>D002106</t>
+          <t>D002057</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,43 +2872,43 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>D004016</t>
+          <t>D003002</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>D004104</t>
+          <t>D003039</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>D004025</t>
+          <t>D003049</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>D004003</t>
+          <t>D004104</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>D002047</t>
+          <t>D002107</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,55 +2932,55 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>D004107</t>
+          <t>D003003</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>D004101</t>
+          <t>D003013</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>D004035</t>
+          <t>D002007</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>D003104</t>
+          <t>D002048</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>D003056</t>
+          <t>D003037</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,19 +2992,19 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>D003060</t>
+          <t>D002045</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>D004029</t>
+          <t>D004013</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>D004042</t>
+          <t>D004032</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,31 +3028,31 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>D003047</t>
+          <t>D004112</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>D003044</t>
+          <t>D002101</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>D004021</t>
+          <t>D004041</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,115 +3064,115 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>D003058</t>
+          <t>D004107</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>D003059</t>
+          <t>D002106</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>D003062</t>
+          <t>D004019</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>D003050</t>
+          <t>D004034</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>D003052</t>
+          <t>D002103</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>D004034</t>
+          <t>D003022</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>D002046</t>
+          <t>D004106</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>D002104</t>
+          <t>D004046</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>D004031</t>
+          <t>D003050</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>D003013</t>
+          <t>D003038</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,19 +3184,19 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>D004112</t>
+          <t>D003062</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>D004046</t>
+          <t>D004029</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,43 +3208,43 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>D004028</t>
+          <t>D003025</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>D003065</t>
+          <t>D004021</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>D002103</t>
+          <t>D004101</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>D002</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>D004103</t>
+          <t>D004011</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,19 +3256,19 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>D003101</t>
+          <t>D002104</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>D003041</t>
+          <t>D003026</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,19 +3280,19 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>D004005</t>
+          <t>D002033</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>D004041</t>
+          <t>D004017</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,31 +3304,31 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>D004102</t>
+          <t>D003023</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>D004033</t>
+          <t>D002047</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>D004110</t>
+          <t>D004012</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,19 +3340,19 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>D004013</t>
+          <t>D002019</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>D003045</t>
+          <t>D003044</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,19 +3364,19 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>D004111</t>
+          <t>D002053</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>D004032</t>
+          <t>D004033</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,55 +3388,55 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>D004108</t>
+          <t>D002046</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>D004106</t>
+          <t>D003065</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>D003051</t>
+          <t>D004103</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D004</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>D003063</t>
+          <t>D002102</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>D003</t>
+          <t>D002</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>D004008</t>
+          <t>D004102</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>D003010</t>
+          <t>D003052</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,19 +3460,19 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>D004020</t>
+          <t>D003063</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>D004039</t>
+          <t>D004018</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,12 +3484,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>D004105</t>
+          <t>D003051</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D004</t>
+          <t>D003</t>
         </is>
       </c>
     </row>
